--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Fgf2-Nrp1.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Fgf2-Nrp1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Nrp1</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>7.95494716024447</v>
+        <v>0.2151743333333333</v>
       </c>
       <c r="H2">
-        <v>7.95494716024447</v>
+        <v>0.645523</v>
       </c>
       <c r="I2">
-        <v>0.7468135253716179</v>
+        <v>0.01945888736810517</v>
       </c>
       <c r="J2">
-        <v>0.7468135253716179</v>
+        <v>0.01945888736810517</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>71.9291305893186</v>
+        <v>87.94127933333334</v>
       </c>
       <c r="N2">
-        <v>71.9291305893186</v>
+        <v>263.823838</v>
       </c>
       <c r="O2">
-        <v>0.3672978098881735</v>
+        <v>0.4109331243514438</v>
       </c>
       <c r="P2">
-        <v>0.3672978098881735</v>
+        <v>0.4109331243514437</v>
       </c>
       <c r="Q2">
-        <v>572.1924331203537</v>
+        <v>18.92270615303045</v>
       </c>
       <c r="R2">
-        <v>572.1924331203537</v>
+        <v>170.304355377274</v>
       </c>
       <c r="S2">
-        <v>0.2743029722638611</v>
+        <v>0.0079963013825783</v>
       </c>
       <c r="T2">
-        <v>0.2743029722638611</v>
+        <v>0.0079963013825783</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>7.95494716024447</v>
+        <v>0.2151743333333333</v>
       </c>
       <c r="H3">
-        <v>7.95494716024447</v>
+        <v>0.645523</v>
       </c>
       <c r="I3">
-        <v>0.7468135253716179</v>
+        <v>0.01945888736810517</v>
       </c>
       <c r="J3">
-        <v>0.7468135253716179</v>
+        <v>0.01945888736810517</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>52.4311790690179</v>
+        <v>52.441971</v>
       </c>
       <c r="N3">
-        <v>52.4311790690179</v>
+        <v>157.325913</v>
       </c>
       <c r="O3">
-        <v>0.2677337691158564</v>
+        <v>0.2450515065683088</v>
       </c>
       <c r="P3">
-        <v>0.2677337691158564</v>
+        <v>0.2450515065683087</v>
       </c>
       <c r="Q3">
-        <v>417.0872590433532</v>
+        <v>11.284166148611</v>
       </c>
       <c r="R3">
-        <v>417.0872590433532</v>
+        <v>101.557495337499</v>
       </c>
       <c r="S3">
-        <v>0.1999471999744435</v>
+        <v>0.004768429665697204</v>
       </c>
       <c r="T3">
-        <v>0.1999471999744435</v>
+        <v>0.004768429665697203</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>7.95494716024447</v>
+        <v>0.2151743333333333</v>
       </c>
       <c r="H4">
-        <v>7.95494716024447</v>
+        <v>0.645523</v>
       </c>
       <c r="I4">
-        <v>0.7468135253716179</v>
+        <v>0.01945888736810517</v>
       </c>
       <c r="J4">
-        <v>0.7468135253716179</v>
+        <v>0.01945888736810517</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>52.9109501613042</v>
+        <v>54.667459</v>
       </c>
       <c r="N4">
-        <v>52.9109501613042</v>
+        <v>164.002377</v>
       </c>
       <c r="O4">
-        <v>0.2701836648674198</v>
+        <v>0.255450795093328</v>
       </c>
       <c r="P4">
-        <v>0.2701836648674198</v>
+        <v>0.255450795093328</v>
       </c>
       <c r="Q4">
-        <v>420.9038127315035</v>
+        <v>11.76303404535233</v>
       </c>
       <c r="R4">
-        <v>420.9038127315035</v>
+        <v>105.867306408171</v>
       </c>
       <c r="S4">
-        <v>0.2017768152574615</v>
+        <v>0.004970788249813982</v>
       </c>
       <c r="T4">
-        <v>0.2017768152574615</v>
+        <v>0.004970788249813981</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>7.95494716024447</v>
+        <v>0.2151743333333333</v>
       </c>
       <c r="H5">
-        <v>7.95494716024447</v>
+        <v>0.645523</v>
       </c>
       <c r="I5">
-        <v>0.7468135253716179</v>
+        <v>0.01945888736810517</v>
       </c>
       <c r="J5">
-        <v>0.7468135253716179</v>
+        <v>0.01945888736810517</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>18.5620085878621</v>
+        <v>18.95316166666667</v>
       </c>
       <c r="N5">
-        <v>18.5620085878621</v>
+        <v>56.85948500000001</v>
       </c>
       <c r="O5">
-        <v>0.09478475612855036</v>
+        <v>0.08856457398691947</v>
       </c>
       <c r="P5">
-        <v>0.09478475612855036</v>
+        <v>0.08856457398691944</v>
       </c>
       <c r="Q5">
-        <v>147.6597975044471</v>
+        <v>4.07823392618389</v>
       </c>
       <c r="R5">
-        <v>147.6597975044471</v>
+        <v>36.704105335655</v>
       </c>
       <c r="S5">
-        <v>0.07078653787585176</v>
+        <v>0.001723368070015683</v>
       </c>
       <c r="T5">
-        <v>0.07078653787585176</v>
+        <v>0.001723368070015682</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.508987418190017</v>
+        <v>8.077181333333334</v>
       </c>
       <c r="H6">
-        <v>0.508987418190017</v>
+        <v>24.231544</v>
       </c>
       <c r="I6">
-        <v>0.04778393627150163</v>
+        <v>0.730444748601188</v>
       </c>
       <c r="J6">
-        <v>0.04778393627150163</v>
+        <v>0.730444748601188</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>71.9291305893186</v>
+        <v>87.94127933333334</v>
       </c>
       <c r="N6">
-        <v>71.9291305893186</v>
+        <v>263.823838</v>
       </c>
       <c r="O6">
-        <v>0.3672978098881735</v>
+        <v>0.4109331243514438</v>
       </c>
       <c r="P6">
-        <v>0.3672978098881735</v>
+        <v>0.4109331243514437</v>
       </c>
       <c r="Q6">
-        <v>36.61102247130985</v>
+        <v>710.3176598606525</v>
       </c>
       <c r="R6">
-        <v>36.61102247130985</v>
+        <v>6392.858938745872</v>
       </c>
       <c r="S6">
-        <v>0.0175509351403586</v>
+        <v>0.3001639427087911</v>
       </c>
       <c r="T6">
-        <v>0.0175509351403586</v>
+        <v>0.300163942708791</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.508987418190017</v>
+        <v>8.077181333333334</v>
       </c>
       <c r="H7">
-        <v>0.508987418190017</v>
+        <v>24.231544</v>
       </c>
       <c r="I7">
-        <v>0.04778393627150163</v>
+        <v>0.730444748601188</v>
       </c>
       <c r="J7">
-        <v>0.04778393627150163</v>
+        <v>0.730444748601188</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>52.4311790690179</v>
+        <v>52.441971</v>
       </c>
       <c r="N7">
-        <v>52.4311790690179</v>
+        <v>157.325913</v>
       </c>
       <c r="O7">
-        <v>0.2677337691158564</v>
+        <v>0.2450515065683088</v>
       </c>
       <c r="P7">
-        <v>0.2677337691158564</v>
+        <v>0.2450515065683087</v>
       </c>
       <c r="Q7">
-        <v>26.68681046699788</v>
+        <v>423.583309244408</v>
       </c>
       <c r="R7">
-        <v>26.68681046699788</v>
+        <v>3812.249783199672</v>
       </c>
       <c r="S7">
-        <v>0.01279337336116101</v>
+        <v>0.1789965861096307</v>
       </c>
       <c r="T7">
-        <v>0.01279337336116101</v>
+        <v>0.1789965861096307</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.508987418190017</v>
+        <v>8.077181333333334</v>
       </c>
       <c r="H8">
-        <v>0.508987418190017</v>
+        <v>24.231544</v>
       </c>
       <c r="I8">
-        <v>0.04778393627150163</v>
+        <v>0.730444748601188</v>
       </c>
       <c r="J8">
-        <v>0.04778393627150163</v>
+        <v>0.730444748601188</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>52.9109501613042</v>
+        <v>54.667459</v>
       </c>
       <c r="N8">
-        <v>52.9109501613042</v>
+        <v>164.002377</v>
       </c>
       <c r="O8">
-        <v>0.2701836648674198</v>
+        <v>0.255450795093328</v>
       </c>
       <c r="P8">
-        <v>0.2701836648674198</v>
+        <v>0.255450795093328</v>
       </c>
       <c r="Q8">
-        <v>26.93100791658289</v>
+        <v>441.5589793755653</v>
       </c>
       <c r="R8">
-        <v>26.93100791658289</v>
+        <v>3974.030814380088</v>
       </c>
       <c r="S8">
-        <v>0.01291043902362554</v>
+        <v>0.1865926918019196</v>
       </c>
       <c r="T8">
-        <v>0.01291043902362554</v>
+        <v>0.1865926918019195</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.508987418190017</v>
+        <v>8.077181333333334</v>
       </c>
       <c r="H9">
-        <v>0.508987418190017</v>
+        <v>24.231544</v>
       </c>
       <c r="I9">
-        <v>0.04778393627150163</v>
+        <v>0.730444748601188</v>
       </c>
       <c r="J9">
-        <v>0.04778393627150163</v>
+        <v>0.730444748601188</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>18.5620085878621</v>
+        <v>18.95316166666667</v>
       </c>
       <c r="N9">
-        <v>18.5620085878621</v>
+        <v>56.85948500000001</v>
       </c>
       <c r="O9">
-        <v>0.09478475612855036</v>
+        <v>0.08856457398691947</v>
       </c>
       <c r="P9">
-        <v>0.09478475612855036</v>
+        <v>0.08856457398691944</v>
       </c>
       <c r="Q9">
-        <v>9.447828827556854</v>
+        <v>153.0881236216489</v>
       </c>
       <c r="R9">
-        <v>9.447828827556854</v>
+        <v>1377.79311259484</v>
       </c>
       <c r="S9">
-        <v>0.004529188746356474</v>
+        <v>0.06469152798084671</v>
       </c>
       <c r="T9">
-        <v>0.004529188746356474</v>
+        <v>0.06469152798084669</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,61 +1018,61 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.18791744350908</v>
+        <v>0.519176</v>
       </c>
       <c r="H10">
-        <v>2.18791744350908</v>
+        <v>1.557528</v>
       </c>
       <c r="I10">
-        <v>0.2054025383568807</v>
+        <v>0.04695070806875992</v>
       </c>
       <c r="J10">
-        <v>0.2054025383568807</v>
+        <v>0.04695070806875992</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>71.9291305893186</v>
+        <v>87.94127933333334</v>
       </c>
       <c r="N10">
-        <v>71.9291305893186</v>
+        <v>263.823838</v>
       </c>
       <c r="O10">
-        <v>0.3672978098881735</v>
+        <v>0.4109331243514438</v>
       </c>
       <c r="P10">
-        <v>0.3672978098881735</v>
+        <v>0.4109331243514437</v>
       </c>
       <c r="Q10">
-        <v>157.3749995128127</v>
+        <v>45.65700163916267</v>
       </c>
       <c r="R10">
-        <v>157.3749995128127</v>
+        <v>410.9130147524641</v>
       </c>
       <c r="S10">
-        <v>0.07544390248395381</v>
+        <v>0.01929360115720805</v>
       </c>
       <c r="T10">
-        <v>0.07544390248395381</v>
+        <v>0.01929360115720805</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,61 +1080,61 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.18791744350908</v>
+        <v>0.519176</v>
       </c>
       <c r="H11">
-        <v>2.18791744350908</v>
+        <v>1.557528</v>
       </c>
       <c r="I11">
-        <v>0.2054025383568807</v>
+        <v>0.04695070806875992</v>
       </c>
       <c r="J11">
-        <v>0.2054025383568807</v>
+        <v>0.04695070806875992</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>52.4311790690179</v>
+        <v>52.441971</v>
       </c>
       <c r="N11">
-        <v>52.4311790690179</v>
+        <v>157.325913</v>
       </c>
       <c r="O11">
-        <v>0.2677337691158564</v>
+        <v>0.2450515065683088</v>
       </c>
       <c r="P11">
-        <v>0.2677337691158564</v>
+        <v>0.2450515065683087</v>
       </c>
       <c r="Q11">
-        <v>114.7150912688524</v>
+        <v>27.226612735896</v>
       </c>
       <c r="R11">
-        <v>114.7150912688524</v>
+        <v>245.039514623064</v>
       </c>
       <c r="S11">
-        <v>0.05499319578025193</v>
+        <v>0.01150534174669847</v>
       </c>
       <c r="T11">
-        <v>0.05499319578025193</v>
+        <v>0.01150534174669847</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,61 +1142,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.18791744350908</v>
+        <v>0.519176</v>
       </c>
       <c r="H12">
-        <v>2.18791744350908</v>
+        <v>1.557528</v>
       </c>
       <c r="I12">
-        <v>0.2054025383568807</v>
+        <v>0.04695070806875992</v>
       </c>
       <c r="J12">
-        <v>0.2054025383568807</v>
+        <v>0.04695070806875992</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>52.9109501613042</v>
+        <v>54.667459</v>
       </c>
       <c r="N12">
-        <v>52.9109501613042</v>
+        <v>164.002377</v>
       </c>
       <c r="O12">
-        <v>0.2701836648674198</v>
+        <v>0.255450795093328</v>
       </c>
       <c r="P12">
-        <v>0.2701836648674198</v>
+        <v>0.255450795093328</v>
       </c>
       <c r="Q12">
-        <v>115.764790810557</v>
+        <v>28.382032693784</v>
       </c>
       <c r="R12">
-        <v>115.764790810557</v>
+        <v>255.438294244056</v>
       </c>
       <c r="S12">
-        <v>0.05549641058633278</v>
+        <v>0.01199359570635945</v>
       </c>
       <c r="T12">
-        <v>0.05549641058633278</v>
+        <v>0.01199359570635945</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1204,309 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.519176</v>
+      </c>
+      <c r="H13">
+        <v>1.557528</v>
+      </c>
+      <c r="I13">
+        <v>0.04695070806875992</v>
+      </c>
+      <c r="J13">
+        <v>0.04695070806875992</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>18.95316166666667</v>
+      </c>
+      <c r="N13">
+        <v>56.85948500000001</v>
+      </c>
+      <c r="O13">
+        <v>0.08856457398691947</v>
+      </c>
+      <c r="P13">
+        <v>0.08856457398691944</v>
+      </c>
+      <c r="Q13">
+        <v>9.840026661453335</v>
+      </c>
+      <c r="R13">
+        <v>88.56023995308001</v>
+      </c>
+      <c r="S13">
+        <v>0.004158169458493945</v>
+      </c>
+      <c r="T13">
+        <v>0.004158169458493944</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>2.246363333333333</v>
+      </c>
+      <c r="H14">
+        <v>6.73909</v>
+      </c>
+      <c r="I14">
+        <v>0.2031456559619469</v>
+      </c>
+      <c r="J14">
+        <v>0.2031456559619469</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>87.94127933333334</v>
+      </c>
+      <c r="N14">
+        <v>263.823838</v>
+      </c>
+      <c r="O14">
+        <v>0.4109331243514438</v>
+      </c>
+      <c r="P14">
+        <v>0.4109331243514437</v>
+      </c>
+      <c r="Q14">
+        <v>197.5480653808245</v>
+      </c>
+      <c r="R14">
+        <v>1777.93258842742</v>
+      </c>
+      <c r="S14">
+        <v>0.08347927910286637</v>
+      </c>
+      <c r="T14">
+        <v>0.08347927910286636</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>2.246363333333333</v>
+      </c>
+      <c r="H15">
+        <v>6.73909</v>
+      </c>
+      <c r="I15">
+        <v>0.2031456559619469</v>
+      </c>
+      <c r="J15">
+        <v>0.2031456559619469</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>52.441971</v>
+      </c>
+      <c r="N15">
+        <v>157.325913</v>
+      </c>
+      <c r="O15">
+        <v>0.2450515065683088</v>
+      </c>
+      <c r="P15">
+        <v>0.2450515065683087</v>
+      </c>
+      <c r="Q15">
+        <v>117.80372078213</v>
+      </c>
+      <c r="R15">
+        <v>1060.23348703917</v>
+      </c>
+      <c r="S15">
+        <v>0.04978114904628243</v>
+      </c>
+      <c r="T15">
+        <v>0.04978114904628243</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>2.18791744350908</v>
-      </c>
-      <c r="H13">
-        <v>2.18791744350908</v>
-      </c>
-      <c r="I13">
-        <v>0.2054025383568807</v>
-      </c>
-      <c r="J13">
-        <v>0.2054025383568807</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>18.5620085878621</v>
-      </c>
-      <c r="N13">
-        <v>18.5620085878621</v>
-      </c>
-      <c r="O13">
-        <v>0.09478475612855036</v>
-      </c>
-      <c r="P13">
-        <v>0.09478475612855036</v>
-      </c>
-      <c r="Q13">
-        <v>40.61214237594883</v>
-      </c>
-      <c r="R13">
-        <v>40.61214237594883</v>
-      </c>
-      <c r="S13">
-        <v>0.01946902950634214</v>
-      </c>
-      <c r="T13">
-        <v>0.01946902950634214</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>2.246363333333333</v>
+      </c>
+      <c r="H16">
+        <v>6.73909</v>
+      </c>
+      <c r="I16">
+        <v>0.2031456559619469</v>
+      </c>
+      <c r="J16">
+        <v>0.2031456559619469</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>54.667459</v>
+      </c>
+      <c r="N16">
+        <v>164.002377</v>
+      </c>
+      <c r="O16">
+        <v>0.255450795093328</v>
+      </c>
+      <c r="P16">
+        <v>0.255450795093328</v>
+      </c>
+      <c r="Q16">
+        <v>122.8029754241033</v>
+      </c>
+      <c r="R16">
+        <v>1105.22677881693</v>
+      </c>
+      <c r="S16">
+        <v>0.05189371933523502</v>
+      </c>
+      <c r="T16">
+        <v>0.05189371933523501</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>2.246363333333333</v>
+      </c>
+      <c r="H17">
+        <v>6.73909</v>
+      </c>
+      <c r="I17">
+        <v>0.2031456559619469</v>
+      </c>
+      <c r="J17">
+        <v>0.2031456559619469</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>18.95316166666667</v>
+      </c>
+      <c r="N17">
+        <v>56.85948500000001</v>
+      </c>
+      <c r="O17">
+        <v>0.08856457398691947</v>
+      </c>
+      <c r="P17">
+        <v>0.08856457398691944</v>
+      </c>
+      <c r="Q17">
+        <v>42.5756874187389</v>
+      </c>
+      <c r="R17">
+        <v>383.18118676865</v>
+      </c>
+      <c r="S17">
+        <v>0.01799150847756314</v>
+      </c>
+      <c r="T17">
+        <v>0.01799150847756313</v>
       </c>
     </row>
   </sheetData>
